--- a/Documentos_proyecto/3.- Lista de requisitos y seguimiento_v1.xlsx
+++ b/Documentos_proyecto/3.- Lista de requisitos y seguimiento_v1.xlsx
@@ -432,28 +432,28 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A1:M1 D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="66.3775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.8673469387755"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5969387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,7 +494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
@@ -527,7 +527,7 @@
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
@@ -589,7 +589,7 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
@@ -620,7 +620,7 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
@@ -651,7 +651,7 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
@@ -682,7 +682,7 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
@@ -713,7 +713,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
@@ -744,7 +744,7 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
@@ -806,7 +806,7 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
@@ -837,7 +837,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
@@ -868,7 +868,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
@@ -930,7 +930,7 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="n">
         <v>16</v>
       </c>

--- a/Documentos_proyecto/3.- Lista de requisitos y seguimiento_v1.xlsx
+++ b/Documentos_proyecto/3.- Lista de requisitos y seguimiento_v1.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Windows\Documents\GitHub\GranScala\Documentos_proyecto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="989"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,232 +24,241 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
-  <si>
-    <t xml:space="preserve">Código</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descripción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitante(s)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultado Esperado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha de requisito</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objetivo en el proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clasificación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prioridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estado Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grado de complejidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Relacion con la EDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Validación del Solicitante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verificación de Calidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que el sistema sea una página web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Hernadez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">acceso desde cualquier lugar con internet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27/agosto/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plataforma de la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incompleta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador puede habilitar y deshabilitar cuentas de usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Fuertes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poder de habilitar  desabilitar usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">separar las funciones que puede hacer un administrador a un empleado normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador puede crear (inscribir) y habilitar nuevos locales asociados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear nuevos locales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Los administradores pueden ver lo que acontece en los supermercados suscritos y usuarios (trabajadores). Cantidad sobrantes en los supermercados y asistencia de los trabajadores.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver estadisticas actuales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permitir al admin analizar a los trabajadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anular turnos asignados a trabajadores en caso de desafiliación (deshabilitación) de local.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notificar y anular turnos de trabajador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automatizar la elimiminacion de turnos en caso de desafiliacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cada nuevo trabajador se inscribe personalmente a través del sistema y debe subir los archivos solicitados para aceptación. Su cuenta queda inactiva hasta la habilitación de un administrador.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">posibilidad de enviar documentos para la solicitud de trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">incripcion de trabajadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El administrador puede crear, borrar, habilitar, deshabilitar cuentas de usuario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poder sobre los usuarios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplicación responsive para comodidad y usabilidad de los usuarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poder usar el programa desde celulares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ampliar los lugares de acceso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEDIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publish and suscribe para los regalos de turnos mediante zonas y/o horarios.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notificar trabajadores sobre turnos sobrantes si este esta incrito para tal zona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trabajar en varios supermercados a la vez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Opción de tener múltiples locales de atención asociados en múltiples países.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agregar distintos locales para enviar trabajadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Posibilidad de 3 procesos para solicitud y asignación de turnos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permitir al usuario solicitar sus turnos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitar turnos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No borrar la información de un usuario deshabilitado.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mantener un registro de personas que han trabajado anteriormente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no borrar información</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incentivo de beneficios con fecha de vencimiento.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poder dar premios a los trabajadores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incentivar a trabajadores a seguir las normas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BAJA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reportes en base a horas trabajadas, beneficios y faltas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">informe sobre personas que mas trabajar y que mas faltan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asignación de turnos en base a beneficios y cola de prioridad en base a orden de llegada.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asignar turnos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si un turno se está regalando, sigue siendo del usuario inscrito con el hasta que otro usuario lo acepte.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
+  <si>
+    <t>Código</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Solicitante(s)</t>
+  </si>
+  <si>
+    <t>Resultado Esperado</t>
+  </si>
+  <si>
+    <t>Fecha de requisito</t>
+  </si>
+  <si>
+    <t>Objetivo en el proyecto</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Prioridad</t>
+  </si>
+  <si>
+    <t>Estado Actual</t>
+  </si>
+  <si>
+    <t>Grado de complejidad</t>
+  </si>
+  <si>
+    <t>Relacion con la EDT</t>
+  </si>
+  <si>
+    <t>Validación del Solicitante</t>
+  </si>
+  <si>
+    <t>Verificación de Calidad</t>
+  </si>
+  <si>
+    <t>Que el sistema sea una página web</t>
+  </si>
+  <si>
+    <t>Sebastian Hernadez</t>
+  </si>
+  <si>
+    <t>acceso desde cualquier lugar con internet</t>
+  </si>
+  <si>
+    <t>27/agosto/2016</t>
+  </si>
+  <si>
+    <t>plataforma de la aplicación</t>
+  </si>
+  <si>
+    <t>ALTA</t>
+  </si>
+  <si>
+    <t>Incompleta</t>
+  </si>
+  <si>
+    <t>MEDIO</t>
+  </si>
+  <si>
+    <t>El administrador puede habilitar y deshabilitar cuentas de usuario.</t>
+  </si>
+  <si>
+    <t>Luis Fuertes</t>
+  </si>
+  <si>
+    <t>Poder de habilitar  desabilitar usuarios</t>
+  </si>
+  <si>
+    <t>separar las funciones que puede hacer un administrador a un empleado normal</t>
+  </si>
+  <si>
+    <t>El administrador puede crear (inscribir) y habilitar nuevos locales asociados.</t>
+  </si>
+  <si>
+    <t>Crear nuevos locales</t>
+  </si>
+  <si>
+    <t>Los administradores pueden ver lo que acontece en los supermercados suscritos y usuarios (trabajadores). Cantidad sobrantes en los supermercados y asistencia de los trabajadores.</t>
+  </si>
+  <si>
+    <t>Ver estadisticas actuales</t>
+  </si>
+  <si>
+    <t>permitir al admin analizar a los trabajadores</t>
+  </si>
+  <si>
+    <t>Anular turnos asignados a trabajadores en caso de desafiliación (deshabilitación) de local.</t>
+  </si>
+  <si>
+    <t>Notificar y anular turnos de trabajador</t>
+  </si>
+  <si>
+    <t>automatizar la elimiminacion de turnos en caso de desafiliacion</t>
+  </si>
+  <si>
+    <t>Cada nuevo trabajador se inscribe personalmente a través del sistema y debe subir los archivos solicitados para aceptación. Su cuenta queda inactiva hasta la habilitación de un administrador.</t>
+  </si>
+  <si>
+    <t>posibilidad de enviar documentos para la solicitud de trabajo</t>
+  </si>
+  <si>
+    <t>incripcion de trabajadores</t>
+  </si>
+  <si>
+    <t>El administrador puede crear, borrar, habilitar, deshabilitar cuentas de usuario.</t>
+  </si>
+  <si>
+    <t>poder sobre los usuarios</t>
+  </si>
+  <si>
+    <t>Aplicación responsive para comodidad y usabilidad de los usuarios.</t>
+  </si>
+  <si>
+    <t>poder usar el programa desde celulares</t>
+  </si>
+  <si>
+    <t>ampliar los lugares de acceso</t>
+  </si>
+  <si>
+    <t>MEDIA</t>
+  </si>
+  <si>
+    <t>Publish and suscribe para los regalos de turnos mediante zonas y/o horarios.</t>
+  </si>
+  <si>
+    <t>notificar trabajadores sobre turnos sobrantes si este esta incrito para tal zona</t>
+  </si>
+  <si>
+    <t>trabajar en varios supermercados a la vez</t>
+  </si>
+  <si>
+    <t>Opción de tener múltiples locales de atención asociados en múltiples países.</t>
+  </si>
+  <si>
+    <t>agregar distintos locales para enviar trabajadores</t>
+  </si>
+  <si>
+    <t>Posibilidad de 3 procesos para solicitud y asignación de turnos.</t>
+  </si>
+  <si>
+    <t>permitir al usuario solicitar sus turnos</t>
+  </si>
+  <si>
+    <t>Solicitar turnos</t>
+  </si>
+  <si>
+    <t>No borrar la información de un usuario deshabilitado.</t>
+  </si>
+  <si>
+    <t>mantener un registro de personas que han trabajado anteriormente</t>
+  </si>
+  <si>
+    <t>no borrar información</t>
+  </si>
+  <si>
+    <t>Incentivo de beneficios con fecha de vencimiento.</t>
+  </si>
+  <si>
+    <t>poder dar premios a los trabajadores</t>
+  </si>
+  <si>
+    <t>Incentivar a trabajadores a seguir las normas</t>
+  </si>
+  <si>
+    <t>BAJA</t>
+  </si>
+  <si>
+    <t>Reportes en base a horas trabajadas, beneficios y faltas.</t>
+  </si>
+  <si>
+    <t>informe sobre personas que mas trabajar y que mas faltan</t>
+  </si>
+  <si>
+    <t>Asignación de turnos en base a beneficios y cola de prioridad en base a orden de llegada.</t>
+  </si>
+  <si>
+    <t>asignar turnos</t>
+  </si>
+  <si>
+    <t>Si un turno se está regalando, sigue siendo del usuario inscrito con el hasta que otro usuario lo acepte.</t>
   </si>
   <si>
     <t xml:space="preserve">que los trabajadores no regalen todos sus turno </t>
   </si>
   <si>
-    <t xml:space="preserve">no poder regalar todo los turnos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media</t>
+    <t>no poder regalar todo los turnos.</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>MUY ALATA</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -276,91 +289,63 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -419,41 +404,315 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="1" sqref="A1:M1 D8"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.6122448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.6071428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.5969387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.36734693877551"/>
+    <col min="1" max="1" width="7.7109375"/>
+    <col min="2" max="2" width="33.5703125"/>
+    <col min="3" max="3" width="17.42578125"/>
+    <col min="4" max="4" width="33.5703125"/>
+    <col min="5" max="5" width="17.85546875"/>
+    <col min="6" max="6" width="65.5703125"/>
+    <col min="7" max="7" width="12.7109375"/>
+    <col min="8" max="8" width="11"/>
+    <col min="9" max="9" width="13.28515625"/>
+    <col min="10" max="10" width="21.5703125"/>
+    <col min="11" max="11" width="19.85546875"/>
+    <col min="12" max="12" width="23.7109375"/>
+    <col min="13" max="13" width="21.7109375"/>
+    <col min="14" max="1025" width="8.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +753,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -523,12 +782,14 @@
       <c r="J2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -553,13 +814,17 @@
       <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -584,13 +849,17 @@
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -615,13 +884,17 @@
       <c r="I5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="J5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -646,13 +919,17 @@
       <c r="I6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="69.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
@@ -677,13 +954,17 @@
       <c r="I7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -708,13 +989,17 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="J8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -739,13 +1024,17 @@
       <c r="I9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="J9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -770,13 +1059,17 @@
       <c r="I10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
@@ -801,13 +1094,17 @@
       <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
+      <c r="J11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -832,13 +1129,17 @@
       <c r="I12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="J12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
@@ -863,13 +1164,17 @@
       <c r="I13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="J13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -894,13 +1199,17 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="J14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="24.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -925,13 +1234,17 @@
       <c r="I15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
+      <c r="J15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
@@ -956,13 +1269,17 @@
       <c r="I16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="J16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
@@ -987,18 +1304,17 @@
       <c r="I17" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="J17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/Documentos_proyecto/3.- Lista de requisitos y seguimiento_v1.xlsx
+++ b/Documentos_proyecto/3.- Lista de requisitos y seguimiento_v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="888" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
+    <workbookView xWindow="1776" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -155,9 +155,6 @@
     <t>Si un turno se está regalando, sigue siendo del usuario inscrito con el hasta que otro usuario lo acepte.</t>
   </si>
   <si>
-    <t>MUY ALATA</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>No poder regalar todo los turnos.</t>
+  </si>
+  <si>
+    <t>MUY ALTA</t>
   </si>
 </sst>
 </file>
@@ -725,7 +725,7 @@
   <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -798,13 +798,13 @@
         <v>14</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="9" t="s">
@@ -817,7 +817,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -839,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="9" t="s">
@@ -852,7 +852,7 @@
         <v>39</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -874,7 +874,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="9" t="s">
@@ -887,12 +887,12 @@
         <v>18</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -909,7 +909,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="9" t="s">
@@ -922,12 +922,12 @@
         <v>16</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -944,7 +944,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="9" t="s">
@@ -957,12 +957,12 @@
         <v>31</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -973,13 +973,13 @@
         <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="9" t="s">
@@ -992,12 +992,12 @@
         <v>31</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1008,13 +1008,13 @@
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="9" t="s">
@@ -1027,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1043,13 +1043,13 @@
         <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="9" t="s">
@@ -1059,15 +1059,15 @@
         <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1078,13 +1078,13 @@
         <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="9" t="s">
@@ -1097,7 +1097,7 @@
         <v>16</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
@@ -1113,13 +1113,13 @@
         <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="9" t="s">
@@ -1132,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
@@ -1148,7 +1148,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>15</v>
@@ -1167,7 +1167,7 @@
         <v>31</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -1183,13 +1183,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="9" t="s">
@@ -1202,7 +1202,7 @@
         <v>39</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -1218,7 +1218,7 @@
         <v>20</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>15</v>
@@ -1237,7 +1237,7 @@
         <v>39</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1253,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="9" t="s">
@@ -1272,12 +1272,12 @@
         <v>31</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1288,13 +1288,13 @@
         <v>14</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="9" t="s">
@@ -1307,12 +1307,12 @@
         <v>16</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1323,13 +1323,13 @@
         <v>20</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="9" t="s">
@@ -1342,7 +1342,7 @@
         <v>16</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
